--- a/biology/Botanique/Microphylle/Microphylle.xlsx
+++ b/biology/Botanique/Microphylle/Microphylle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Microphylle se dit de :
-feuilles archaïques, pas nécessairement petites, qui comportent un seul faisceau conducteur (faisceau vasculaire correspondant à la nervure centrale non divisée). Elles sont surtout présentes chez les lycophytes et les sphénophytes, faisant partie des ptéridophytes. Plusieurs schémas évolutifs sont proposés pour expliquer leur origine : vascularisation d'un poil ou d'une épine comme celui des Zostérophyllopsides ; homologie d'un sporange devenu stérile[1].
-feuilles de petite taille[2], dont la surface du limbe est comprise entre 2 et 20 cm2 [3] selon la classification de Christen Christiansen Raunkiær (1934)[4] ou entre 225 et 2025 mm2[5] selon la classification modifiée de Jack A. Wolfe (1993)[6].
+feuilles archaïques, pas nécessairement petites, qui comportent un seul faisceau conducteur (faisceau vasculaire correspondant à la nervure centrale non divisée). Elles sont surtout présentes chez les lycophytes et les sphénophytes, faisant partie des ptéridophytes. Plusieurs schémas évolutifs sont proposés pour expliquer leur origine : vascularisation d'un poil ou d'une épine comme celui des Zostérophyllopsides ; homologie d'un sporange devenu stérile.
+feuilles de petite taille, dont la surface du limbe est comprise entre 2 et 20 cm2  selon la classification de Christen Christiansen Raunkiær (1934) ou entre 225 et 2025 mm2 selon la classification modifiée de Jack A. Wolfe (1993).
 plantes qui ont des feuilles microphylles.</t>
         </is>
       </c>
